--- a/Code/Results/Cases/Case_4_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.26077211841906</v>
+        <v>13.21746643998903</v>
       </c>
       <c r="C2">
-        <v>18.22017181682816</v>
+        <v>10.01825907257359</v>
       </c>
       <c r="D2">
-        <v>7.268252675906604</v>
+        <v>5.978722398905361</v>
       </c>
       <c r="E2">
-        <v>10.96657815971583</v>
+        <v>10.75430003579544</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>45.80327069640786</v>
+        <v>37.24697618670292</v>
       </c>
       <c r="H2">
-        <v>12.78949546513756</v>
+        <v>15.51393466838432</v>
       </c>
       <c r="I2">
-        <v>18.53815389743832</v>
+        <v>21.89653471378388</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.80400628973742</v>
+        <v>15.33594835170326</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.8124315412728</v>
+        <v>12.6466151517221</v>
       </c>
       <c r="C3">
-        <v>16.95734250242399</v>
+        <v>9.416761198580325</v>
       </c>
       <c r="D3">
-        <v>6.747999183393655</v>
+        <v>5.859837063128313</v>
       </c>
       <c r="E3">
-        <v>10.38250621673381</v>
+        <v>10.65302686721537</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.13182946296315</v>
+        <v>36.56991370282083</v>
       </c>
       <c r="H3">
-        <v>12.38332466888911</v>
+        <v>15.48809719275254</v>
       </c>
       <c r="I3">
-        <v>18.04064615922355</v>
+        <v>21.87632917135912</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.5165195782607</v>
+        <v>15.05744823673104</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.87618416161424</v>
+        <v>12.28571832648902</v>
       </c>
       <c r="C4">
-        <v>16.14274657532832</v>
+        <v>9.028855382972717</v>
       </c>
       <c r="D4">
-        <v>6.412654922357573</v>
+        <v>5.787570046196155</v>
       </c>
       <c r="E4">
-        <v>10.02243263192073</v>
+        <v>10.59410100298315</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.47493356623991</v>
+        <v>36.16392712441267</v>
       </c>
       <c r="H4">
-        <v>12.14330627729633</v>
+        <v>15.47658731183004</v>
       </c>
       <c r="I4">
-        <v>17.75458934049388</v>
+        <v>21.87066940134487</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.68734020155817</v>
+        <v>14.88839282652102</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48269659146859</v>
+        <v>12.13627143009059</v>
       </c>
       <c r="C5">
-        <v>15.80077299898949</v>
+        <v>8.866227506193647</v>
       </c>
       <c r="D5">
-        <v>6.271929537793837</v>
+        <v>5.758348289760543</v>
       </c>
       <c r="E5">
-        <v>9.875440234074635</v>
+        <v>10.57092810668991</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.79608263732766</v>
+        <v>36.00117332347321</v>
       </c>
       <c r="H5">
-        <v>12.04785700114987</v>
+        <v>15.4729908959445</v>
       </c>
       <c r="I5">
-        <v>17.64278757576632</v>
+        <v>21.87005285805358</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.33956956187571</v>
+        <v>14.82008786345369</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.41663182504425</v>
+        <v>12.111319668254</v>
       </c>
       <c r="C6">
-        <v>15.7433790326662</v>
+        <v>8.838952323199395</v>
       </c>
       <c r="D6">
-        <v>6.248314414703579</v>
+        <v>5.753511086526252</v>
       </c>
       <c r="E6">
-        <v>9.851020361609059</v>
+        <v>10.56713156624905</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.68315827956665</v>
+        <v>35.97431753604819</v>
       </c>
       <c r="H6">
-        <v>12.0321504057407</v>
+        <v>15.4724597351757</v>
       </c>
       <c r="I6">
-        <v>17.62450751428896</v>
+        <v>21.87005232073612</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.28122206622553</v>
+        <v>14.80878414416707</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.8709260627502</v>
+        <v>12.28371213217169</v>
       </c>
       <c r="C7">
-        <v>16.13817536747806</v>
+        <v>9.026680383315792</v>
       </c>
       <c r="D7">
-        <v>6.410773619109736</v>
+        <v>5.787174970948328</v>
       </c>
       <c r="E7">
-        <v>10.02045112606111</v>
+        <v>10.59378505828915</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.46579230466932</v>
+        <v>36.16172096709215</v>
       </c>
       <c r="H7">
-        <v>12.14200945254295</v>
+        <v>15.47653438219235</v>
       </c>
       <c r="I7">
-        <v>17.7530623902021</v>
+        <v>21.87065425431527</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.6826902109545</v>
+        <v>14.8874691385731</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.77103601319519</v>
+        <v>13.02292548283289</v>
       </c>
       <c r="C8">
-        <v>17.79278732055118</v>
+        <v>9.814783533990132</v>
       </c>
       <c r="D8">
-        <v>7.092127105139441</v>
+        <v>5.937605912714576</v>
       </c>
       <c r="E8">
-        <v>10.76554298572055</v>
+        <v>10.71871845255984</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>44.88586636506621</v>
+        <v>37.01165165226777</v>
       </c>
       <c r="H8">
-        <v>12.64750334978588</v>
+        <v>15.50412186226225</v>
       </c>
       <c r="I8">
-        <v>18.36251730248376</v>
+        <v>21.88816410163961</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.36800666518671</v>
+        <v>15.23957630361894</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.13207242305879</v>
+        <v>14.38120074297948</v>
       </c>
       <c r="C9">
-        <v>20.73424714295263</v>
+        <v>11.26274168591647</v>
       </c>
       <c r="D9">
-        <v>8.305459565456543</v>
+        <v>6.236461624443573</v>
       </c>
       <c r="E9">
-        <v>12.21258236237695</v>
+        <v>10.98853033346244</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.44743604089839</v>
+        <v>38.74476386768166</v>
       </c>
       <c r="H9">
-        <v>13.71341032316823</v>
+        <v>15.59276872728486</v>
       </c>
       <c r="I9">
-        <v>19.71670951241505</v>
+        <v>21.97625499288157</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.37405224756003</v>
+        <v>15.94123033716203</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.39055395334749</v>
+        <v>15.31342246478072</v>
       </c>
       <c r="C10">
-        <v>22.72277206156527</v>
+        <v>12.25807526648683</v>
       </c>
       <c r="D10">
-        <v>9.127228080436661</v>
+        <v>6.455874231815693</v>
       </c>
       <c r="E10">
-        <v>13.30310524775928</v>
+        <v>11.20040879590455</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.17620463413191</v>
+        <v>40.04401778767318</v>
       </c>
       <c r="H10">
-        <v>14.54356132838403</v>
+        <v>15.6788874765626</v>
       </c>
       <c r="I10">
-        <v>20.8161478934846</v>
+        <v>22.07394614714686</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.41293015686043</v>
+        <v>16.45794802614346</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.37516841739628</v>
+        <v>15.72159614537519</v>
       </c>
       <c r="C11">
-        <v>23.59306756493761</v>
+        <v>12.6848147012263</v>
       </c>
       <c r="D11">
-        <v>9.487243712479836</v>
+        <v>6.555152981316099</v>
       </c>
       <c r="E11">
-        <v>13.8705281096294</v>
+        <v>11.29941775484953</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.345001535061</v>
+        <v>40.63768761348193</v>
       </c>
       <c r="H11">
-        <v>14.93221384501208</v>
+        <v>15.7225843895598</v>
       </c>
       <c r="I11">
-        <v>21.34103747428584</v>
+        <v>22.12555529899704</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.30688980127171</v>
+        <v>16.69214333063785</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.74214419562055</v>
+        <v>15.87376378304813</v>
       </c>
       <c r="C12">
-        <v>23.91799298706193</v>
+        <v>12.84268665528799</v>
       </c>
       <c r="D12">
-        <v>9.621708518802809</v>
+        <v>6.592631110604296</v>
       </c>
       <c r="E12">
-        <v>14.08360756902608</v>
+        <v>11.3372569958838</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.1709706412878</v>
+        <v>40.86262996542045</v>
       </c>
       <c r="H12">
-        <v>15.0810748839546</v>
+        <v>15.73977626832851</v>
       </c>
       <c r="I12">
-        <v>21.54357155551968</v>
+        <v>22.14612691338613</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.64090071189048</v>
+        <v>16.78061303212972</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.66336599291968</v>
+        <v>15.84110006096982</v>
       </c>
       <c r="C13">
-        <v>23.84821558508609</v>
+        <v>12.80885145997627</v>
       </c>
       <c r="D13">
-        <v>9.592829995555554</v>
+        <v>6.584565322457644</v>
       </c>
       <c r="E13">
-        <v>14.03779218948239</v>
+        <v>11.32909271391328</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>58.99319921246009</v>
+        <v>40.8141825337313</v>
       </c>
       <c r="H13">
-        <v>15.04893790996429</v>
+        <v>15.73604510797988</v>
       </c>
       <c r="I13">
-        <v>21.49978065791136</v>
+        <v>22.14165077087823</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.56916076734272</v>
+        <v>16.76157046376919</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.40547580652082</v>
+        <v>15.73416372937653</v>
       </c>
       <c r="C14">
-        <v>23.61989047222882</v>
+        <v>12.69787746290837</v>
       </c>
       <c r="D14">
-        <v>9.49834285242668</v>
+        <v>6.558238886979097</v>
       </c>
       <c r="E14">
-        <v>13.88809255268045</v>
+        <v>11.30252404161008</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>58.41300781852989</v>
+        <v>40.65619247820912</v>
       </c>
       <c r="H14">
-        <v>14.94442619578208</v>
+        <v>15.72398588725367</v>
       </c>
       <c r="I14">
-        <v>21.35762313705415</v>
+        <v>22.12722714916242</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.33445758186388</v>
+        <v>16.69942660082054</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.2467541022872</v>
+        <v>15.66834668710279</v>
       </c>
       <c r="C15">
-        <v>23.47944033416877</v>
+        <v>12.62941816866314</v>
       </c>
       <c r="D15">
-        <v>9.440227664381604</v>
+        <v>6.542096855000583</v>
       </c>
       <c r="E15">
-        <v>13.79617231983343</v>
+        <v>11.28629419144042</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.05727166736234</v>
+        <v>40.55942911079661</v>
       </c>
       <c r="H15">
-        <v>14.88063314881818</v>
+        <v>15.71668306260721</v>
       </c>
       <c r="I15">
-        <v>21.27104559040676</v>
+        <v>22.11852608078687</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.19011741391931</v>
+        <v>16.66133106548782</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.32536901865063</v>
+        <v>15.28641739864808</v>
       </c>
       <c r="C16">
-        <v>22.66523046789213</v>
+        <v>12.229664497722</v>
       </c>
       <c r="D16">
-        <v>9.10343229258129</v>
+        <v>6.449371943729855</v>
       </c>
       <c r="E16">
-        <v>13.26575714829034</v>
+        <v>11.19398852892282</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.03641162514752</v>
+        <v>40.00525180422031</v>
       </c>
       <c r="H16">
-        <v>14.51839152625351</v>
+        <v>15.67612232649222</v>
       </c>
       <c r="I16">
-        <v>20.78236008590161</v>
+        <v>22.0707174480765</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.35385853639357</v>
+        <v>16.44261758904188</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.7493577285715</v>
+        <v>15.0479582796661</v>
       </c>
       <c r="C17">
-        <v>22.15715370549369</v>
+        <v>11.97777258383334</v>
       </c>
       <c r="D17">
-        <v>8.893363383989819</v>
+        <v>6.392322600512798</v>
       </c>
       <c r="E17">
-        <v>12.96129954344126</v>
+        <v>11.13801254959915</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.80949819270722</v>
+        <v>39.66577840932168</v>
       </c>
       <c r="H17">
-        <v>14.2990502669302</v>
+        <v>15.65239414876227</v>
       </c>
       <c r="I17">
-        <v>20.489041734252</v>
+        <v>22.04322328783405</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.83245931615514</v>
+        <v>16.30815707845287</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.41400627839687</v>
+        <v>14.90931197809293</v>
       </c>
       <c r="C18">
-        <v>21.86167372121068</v>
+        <v>11.83043856010316</v>
       </c>
       <c r="D18">
-        <v>8.771229340612791</v>
+        <v>6.359461404449725</v>
       </c>
       <c r="E18">
-        <v>12.8034253458052</v>
+        <v>11.10606555417</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>54.10220775533073</v>
+        <v>39.47078431474596</v>
       </c>
       <c r="H18">
-        <v>14.17391927307795</v>
+        <v>15.63917226166757</v>
       </c>
       <c r="I18">
-        <v>20.32264723692422</v>
+        <v>22.0280844133565</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.52938682764161</v>
+        <v>16.23074299203414</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.29975945355248</v>
+        <v>14.86211637935203</v>
       </c>
       <c r="C19">
-        <v>21.76106310164083</v>
+        <v>11.78013197111425</v>
       </c>
       <c r="D19">
-        <v>8.729648759863151</v>
+        <v>6.348328187905061</v>
       </c>
       <c r="E19">
-        <v>12.7499504232277</v>
+        <v>11.09529252436521</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.86244340457378</v>
+        <v>39.4048153103583</v>
       </c>
       <c r="H19">
-        <v>14.13172614889779</v>
+        <v>15.6347688561601</v>
       </c>
       <c r="I19">
-        <v>20.26670076818574</v>
+        <v>22.02307463799475</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.42621717391046</v>
+        <v>16.20452170756945</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.81109186620961</v>
+        <v>15.07349783674054</v>
       </c>
       <c r="C20">
-        <v>22.21157344863229</v>
+        <v>12.00484058343153</v>
       </c>
       <c r="D20">
-        <v>8.915860118313828</v>
+        <v>6.398400856166632</v>
       </c>
       <c r="E20">
-        <v>12.99050908317283</v>
+        <v>11.14394574740626</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.94026786961916</v>
+        <v>39.70189062458924</v>
       </c>
       <c r="H20">
-        <v>14.3222924679044</v>
+        <v>15.65487600635849</v>
       </c>
       <c r="I20">
-        <v>20.52002506107478</v>
+        <v>22.04608023701674</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.88828989150852</v>
+        <v>16.32247916313528</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.48138152257786</v>
+        <v>15.76563943902843</v>
       </c>
       <c r="C21">
-        <v>23.68707838591886</v>
+        <v>12.73057415333808</v>
       </c>
       <c r="D21">
-        <v>9.526145605142636</v>
+        <v>6.565975070623284</v>
       </c>
       <c r="E21">
-        <v>13.93210930811588</v>
+        <v>11.31031874304886</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.58349612652979</v>
+        <v>40.70259630776129</v>
       </c>
       <c r="H21">
-        <v>14.97507702350249</v>
+        <v>15.72751052064603</v>
       </c>
       <c r="I21">
-        <v>21.39927400719708</v>
+        <v>22.13143583621994</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.40351537173999</v>
+        <v>16.71768629833565</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.53891423479141</v>
+        <v>16.2039710296171</v>
       </c>
       <c r="C22">
-        <v>24.62454663311708</v>
+        <v>13.18317996311126</v>
       </c>
       <c r="D22">
-        <v>9.914197240494692</v>
+        <v>6.674798024725069</v>
       </c>
       <c r="E22">
-        <v>14.54928564899807</v>
+        <v>11.42105931561199</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.9830340531035</v>
+        <v>41.35728012449592</v>
       </c>
       <c r="H22">
-        <v>15.41161887794709</v>
+        <v>15.77873656567354</v>
       </c>
       <c r="I22">
-        <v>21.99602374512429</v>
+        <v>22.1932122620515</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.36767843136654</v>
+        <v>16.97468482064063</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.97750884473927</v>
+        <v>15.97134115181522</v>
       </c>
       <c r="C23">
-        <v>24.12655194487779</v>
+        <v>12.94359500018997</v>
       </c>
       <c r="D23">
-        <v>9.708031585728202</v>
+        <v>6.61679352055878</v>
       </c>
       <c r="E23">
-        <v>14.22073168336139</v>
+        <v>11.36178170480809</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.70359294299467</v>
+        <v>41.00788108188259</v>
       </c>
       <c r="H23">
-        <v>15.17767684632689</v>
+        <v>15.75105469907747</v>
       </c>
       <c r="I23">
-        <v>21.67542078299208</v>
+        <v>22.15969407343545</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.85536281069288</v>
+        <v>16.83766705556177</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.78319494906344</v>
+        <v>15.06195623143658</v>
       </c>
       <c r="C24">
-        <v>22.18698083209441</v>
+        <v>11.99261098535224</v>
       </c>
       <c r="D24">
-        <v>8.905693597924795</v>
+        <v>6.395653069244453</v>
       </c>
       <c r="E24">
-        <v>12.97730401072501</v>
+        <v>11.14126261643876</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.88115292145114</v>
+        <v>39.68556373231133</v>
       </c>
       <c r="H24">
-        <v>14.31178165097953</v>
+        <v>15.65375265069545</v>
       </c>
       <c r="I24">
-        <v>20.50601054297774</v>
+        <v>22.0447865298081</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.86305923090354</v>
+        <v>16.31600448727747</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.26077312048333</v>
+        <v>14.02465810748618</v>
       </c>
       <c r="C25">
-        <v>19.96977735205316</v>
+        <v>10.87297481648394</v>
       </c>
       <c r="D25">
-        <v>7.989860138711986</v>
+        <v>6.155464041716987</v>
       </c>
       <c r="E25">
-        <v>11.82281698522972</v>
+        <v>10.91302933865821</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.68898276761207</v>
+        <v>38.27031108261369</v>
       </c>
       <c r="H25">
-        <v>13.41697116470632</v>
+        <v>15.56509170988685</v>
       </c>
       <c r="I25">
-        <v>19.33260470963879</v>
+        <v>21.94664187672292</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.59163157044169</v>
+        <v>15.75080490952943</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.21746643998903</v>
+        <v>21.26077211841905</v>
       </c>
       <c r="C2">
-        <v>10.01825907257359</v>
+        <v>18.22017181682821</v>
       </c>
       <c r="D2">
-        <v>5.978722398905361</v>
+        <v>7.268252675906534</v>
       </c>
       <c r="E2">
-        <v>10.75430003579544</v>
+        <v>10.96657815971584</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>37.24697618670292</v>
+        <v>45.80327069640791</v>
       </c>
       <c r="H2">
-        <v>15.51393466838432</v>
+        <v>12.78949546513764</v>
       </c>
       <c r="I2">
-        <v>21.89653471378388</v>
+        <v>18.53815389743842</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.33594835170326</v>
+        <v>18.80400628973743</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.6466151517221</v>
+        <v>19.81243154127272</v>
       </c>
       <c r="C3">
-        <v>9.416761198580325</v>
+        <v>16.95734250242388</v>
       </c>
       <c r="D3">
-        <v>5.859837063128313</v>
+        <v>6.74799918339363</v>
       </c>
       <c r="E3">
-        <v>10.65302686721537</v>
+        <v>10.38250621673378</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>36.56991370282083</v>
+        <v>43.13182946296333</v>
       </c>
       <c r="H3">
-        <v>15.48809719275254</v>
+        <v>12.38332466888918</v>
       </c>
       <c r="I3">
-        <v>21.87632917135912</v>
+        <v>18.04064615922371</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.05744823673104</v>
+        <v>17.51651957826065</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.28571832648902</v>
+        <v>18.87618416161438</v>
       </c>
       <c r="C4">
-        <v>9.028855382972717</v>
+        <v>16.14274657532837</v>
       </c>
       <c r="D4">
-        <v>5.787570046196155</v>
+        <v>6.412654922357618</v>
       </c>
       <c r="E4">
-        <v>10.59410100298315</v>
+        <v>10.02243263192077</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.16392712441267</v>
+        <v>41.47493356623983</v>
       </c>
       <c r="H4">
-        <v>15.47658731183004</v>
+        <v>12.14330627729619</v>
       </c>
       <c r="I4">
-        <v>21.87066940134487</v>
+        <v>17.75458934049364</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.88839282652102</v>
+        <v>16.68734020155827</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.13627143009059</v>
+        <v>18.48269659146856</v>
       </c>
       <c r="C5">
-        <v>8.866227506193647</v>
+        <v>15.80077299898946</v>
       </c>
       <c r="D5">
-        <v>5.758348289760543</v>
+        <v>6.271929537793892</v>
       </c>
       <c r="E5">
-        <v>10.57092810668991</v>
+        <v>9.875440234074615</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36.00117332347321</v>
+        <v>40.79608263732777</v>
       </c>
       <c r="H5">
-        <v>15.4729908959445</v>
+        <v>12.04785700114988</v>
       </c>
       <c r="I5">
-        <v>21.87005285805358</v>
+        <v>17.64278757576636</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.82008786345369</v>
+        <v>16.33956956187571</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.111319668254</v>
+        <v>18.41663182504425</v>
       </c>
       <c r="C6">
-        <v>8.838952323199395</v>
+        <v>15.74337903266605</v>
       </c>
       <c r="D6">
-        <v>5.753511086526252</v>
+        <v>6.248314414703638</v>
       </c>
       <c r="E6">
-        <v>10.56713156624905</v>
+        <v>9.851020361609045</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>35.97431753604819</v>
+        <v>40.6831582795667</v>
       </c>
       <c r="H6">
-        <v>15.4724597351757</v>
+        <v>12.03215040574074</v>
       </c>
       <c r="I6">
-        <v>21.87005232073612</v>
+        <v>17.62450751428897</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.80878414416707</v>
+        <v>16.28122206622551</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28371213217169</v>
+        <v>18.87092606275027</v>
       </c>
       <c r="C7">
-        <v>9.026680383315792</v>
+        <v>16.13817536747819</v>
       </c>
       <c r="D7">
-        <v>5.787174970948328</v>
+        <v>6.41077361910969</v>
       </c>
       <c r="E7">
-        <v>10.59378505828915</v>
+        <v>10.02045112606115</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>36.16172096709215</v>
+        <v>41.46579230466942</v>
       </c>
       <c r="H7">
-        <v>15.47653438219235</v>
+        <v>12.14200945254296</v>
       </c>
       <c r="I7">
-        <v>21.87065425431527</v>
+        <v>17.75306239020204</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.8874691385731</v>
+        <v>16.68269021095454</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.02292548283289</v>
+        <v>20.7710360131951</v>
       </c>
       <c r="C8">
-        <v>9.814783533990132</v>
+        <v>17.79278732055114</v>
       </c>
       <c r="D8">
-        <v>5.937605912714576</v>
+        <v>7.092127105139504</v>
       </c>
       <c r="E8">
-        <v>10.71871845255984</v>
+        <v>10.76554298572054</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>37.01165165226777</v>
+        <v>44.88586636506645</v>
       </c>
       <c r="H8">
-        <v>15.50412186226225</v>
+        <v>12.64750334978592</v>
       </c>
       <c r="I8">
-        <v>21.88816410163961</v>
+        <v>18.36251730248391</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.23957630361894</v>
+        <v>18.36800666518672</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.38120074297948</v>
+        <v>24.13207242305863</v>
       </c>
       <c r="C9">
-        <v>11.26274168591647</v>
+        <v>20.73424714295253</v>
       </c>
       <c r="D9">
-        <v>6.236461624443573</v>
+        <v>8.305459565456461</v>
       </c>
       <c r="E9">
-        <v>10.98853033346244</v>
+        <v>12.21258236237693</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.74476386768166</v>
+        <v>51.44743604089843</v>
       </c>
       <c r="H9">
-        <v>15.59276872728486</v>
+        <v>13.71341032316834</v>
       </c>
       <c r="I9">
-        <v>21.97625499288157</v>
+        <v>19.71670951241524</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.94123033716203</v>
+        <v>21.37405224755993</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.31342246478072</v>
+        <v>26.39055395334756</v>
       </c>
       <c r="C10">
-        <v>12.25807526648683</v>
+        <v>22.72277206156533</v>
       </c>
       <c r="D10">
-        <v>6.455874231815693</v>
+        <v>9.127228080436661</v>
       </c>
       <c r="E10">
-        <v>11.20040879590455</v>
+        <v>13.30310524775931</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>40.04401778767318</v>
+        <v>56.17620463413208</v>
       </c>
       <c r="H10">
-        <v>15.6788874765626</v>
+        <v>14.54356132838403</v>
       </c>
       <c r="I10">
-        <v>22.07394614714686</v>
+        <v>20.81614789348461</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.45794802614346</v>
+        <v>23.41293015686048</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.72159614537519</v>
+        <v>27.37516841739644</v>
       </c>
       <c r="C11">
-        <v>12.6848147012263</v>
+        <v>23.59306756493768</v>
       </c>
       <c r="D11">
-        <v>6.555152981316099</v>
+        <v>9.487243712479859</v>
       </c>
       <c r="E11">
-        <v>11.29941775484953</v>
+        <v>13.87052810962942</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>40.63768761348193</v>
+        <v>58.34500153506163</v>
       </c>
       <c r="H11">
-        <v>15.7225843895598</v>
+        <v>14.93221384501212</v>
       </c>
       <c r="I11">
-        <v>22.12555529899704</v>
+        <v>21.34103747428588</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.69214333063785</v>
+        <v>24.30688980127184</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.87376378304813</v>
+        <v>27.7421441956204</v>
       </c>
       <c r="C12">
-        <v>12.84268665528799</v>
+        <v>23.91799298706196</v>
       </c>
       <c r="D12">
-        <v>6.592631110604296</v>
+        <v>9.621708518802789</v>
       </c>
       <c r="E12">
-        <v>11.3372569958838</v>
+        <v>14.08360756902601</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>40.86262996542045</v>
+        <v>59.17097064128766</v>
       </c>
       <c r="H12">
-        <v>15.73977626832851</v>
+        <v>15.08107488395463</v>
       </c>
       <c r="I12">
-        <v>22.14612691338613</v>
+        <v>21.54357155551975</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.78061303212972</v>
+        <v>24.64090071189036</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.84110006096982</v>
+        <v>27.66336599291958</v>
       </c>
       <c r="C13">
-        <v>12.80885145997627</v>
+        <v>23.84821558508606</v>
       </c>
       <c r="D13">
-        <v>6.584565322457644</v>
+        <v>9.592829995555627</v>
       </c>
       <c r="E13">
-        <v>11.32909271391328</v>
+        <v>14.03779218948241</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>40.8141825337313</v>
+        <v>58.99319921246025</v>
       </c>
       <c r="H13">
-        <v>15.73604510797988</v>
+        <v>15.04893790996432</v>
       </c>
       <c r="I13">
-        <v>22.14165077087823</v>
+        <v>21.49978065791145</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.76157046376919</v>
+        <v>24.56916076734269</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.73416372937653</v>
+        <v>27.40547580652092</v>
       </c>
       <c r="C14">
-        <v>12.69787746290837</v>
+        <v>23.61989047222885</v>
       </c>
       <c r="D14">
-        <v>6.558238886979097</v>
+        <v>9.498342852426701</v>
       </c>
       <c r="E14">
-        <v>11.30252404161008</v>
+        <v>13.88809255268044</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>40.65619247820912</v>
+        <v>58.41300781853016</v>
       </c>
       <c r="H14">
-        <v>15.72398588725367</v>
+        <v>14.94442619578208</v>
       </c>
       <c r="I14">
-        <v>22.12722714916242</v>
+        <v>21.3576231370542</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.69942660082054</v>
+        <v>24.33445758186391</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.66834668710279</v>
+        <v>27.24675410228724</v>
       </c>
       <c r="C15">
-        <v>12.62941816866314</v>
+        <v>23.4794403341687</v>
       </c>
       <c r="D15">
-        <v>6.542096855000583</v>
+        <v>9.440227664381711</v>
       </c>
       <c r="E15">
-        <v>11.28629419144042</v>
+        <v>13.79617231983346</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>40.55942911079661</v>
+        <v>58.05727166736243</v>
       </c>
       <c r="H15">
-        <v>15.71668306260721</v>
+        <v>14.88063314881821</v>
       </c>
       <c r="I15">
-        <v>22.11852608078687</v>
+        <v>21.2710455904068</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.66133106548782</v>
+        <v>24.19011741391933</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.28641739864808</v>
+        <v>26.32536901865066</v>
       </c>
       <c r="C16">
-        <v>12.229664497722</v>
+        <v>22.66523046789222</v>
       </c>
       <c r="D16">
-        <v>6.449371943729855</v>
+        <v>9.103432292581228</v>
       </c>
       <c r="E16">
-        <v>11.19398852892282</v>
+        <v>13.26575714829025</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>40.00525180422031</v>
+        <v>56.03641162514771</v>
       </c>
       <c r="H16">
-        <v>15.67612232649222</v>
+        <v>14.51839152625352</v>
       </c>
       <c r="I16">
-        <v>22.0707174480765</v>
+        <v>20.78236008590168</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.44261758904188</v>
+        <v>23.35385853639353</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.0479582796661</v>
+        <v>25.74935772857159</v>
       </c>
       <c r="C17">
-        <v>11.97777258383334</v>
+        <v>22.15715370549362</v>
       </c>
       <c r="D17">
-        <v>6.392322600512798</v>
+        <v>8.893363383989886</v>
       </c>
       <c r="E17">
-        <v>11.13801254959915</v>
+        <v>12.9612995434413</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>39.66577840932168</v>
+        <v>54.80949819270747</v>
       </c>
       <c r="H17">
-        <v>15.65239414876227</v>
+        <v>14.29905026693021</v>
       </c>
       <c r="I17">
-        <v>22.04322328783405</v>
+        <v>20.48904173425202</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.30815707845287</v>
+        <v>22.83245931615518</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.90931197809293</v>
+        <v>25.41400627839685</v>
       </c>
       <c r="C18">
-        <v>11.83043856010316</v>
+        <v>21.86167372121061</v>
       </c>
       <c r="D18">
-        <v>6.359461404449725</v>
+        <v>8.771229340612759</v>
       </c>
       <c r="E18">
-        <v>11.10606555417</v>
+        <v>12.80342534580518</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>39.47078431474596</v>
+        <v>54.10220775533079</v>
       </c>
       <c r="H18">
-        <v>15.63917226166757</v>
+        <v>14.17391927307796</v>
       </c>
       <c r="I18">
-        <v>22.0280844133565</v>
+        <v>20.32264723692428</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.23074299203414</v>
+        <v>22.52938682764157</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.86211637935203</v>
+        <v>25.29975945355256</v>
       </c>
       <c r="C19">
-        <v>11.78013197111425</v>
+        <v>21.76106310164094</v>
       </c>
       <c r="D19">
-        <v>6.348328187905061</v>
+        <v>8.729648759863288</v>
       </c>
       <c r="E19">
-        <v>11.09529252436521</v>
+        <v>12.74995042322772</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>39.4048153103583</v>
+        <v>53.86244340457414</v>
       </c>
       <c r="H19">
-        <v>15.6347688561601</v>
+        <v>14.13172614889779</v>
       </c>
       <c r="I19">
-        <v>22.02307463799475</v>
+        <v>20.26670076818583</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.20452170756945</v>
+        <v>22.42621717391054</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.07349783674054</v>
+        <v>25.81109186620954</v>
       </c>
       <c r="C20">
-        <v>12.00484058343153</v>
+        <v>22.21157344863226</v>
       </c>
       <c r="D20">
-        <v>6.398400856166632</v>
+        <v>8.915860118313711</v>
       </c>
       <c r="E20">
-        <v>11.14394574740626</v>
+        <v>12.99050908317284</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>39.70189062458924</v>
+        <v>54.94026786961918</v>
       </c>
       <c r="H20">
-        <v>15.65487600635849</v>
+        <v>14.32229246790445</v>
       </c>
       <c r="I20">
-        <v>22.04608023701674</v>
+        <v>20.52002506107487</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.32247916313528</v>
+        <v>22.88828989150848</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.76563943902843</v>
+        <v>27.4813815225779</v>
       </c>
       <c r="C21">
-        <v>12.73057415333808</v>
+        <v>23.68707838591899</v>
       </c>
       <c r="D21">
-        <v>6.565975070623284</v>
+        <v>9.526145605142593</v>
       </c>
       <c r="E21">
-        <v>11.31031874304886</v>
+        <v>13.93210930811594</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>40.70259630776129</v>
+        <v>58.58349612652997</v>
       </c>
       <c r="H21">
-        <v>15.72751052064603</v>
+        <v>14.97507702350249</v>
       </c>
       <c r="I21">
-        <v>22.13143583621994</v>
+        <v>21.39927400719712</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.71768629833565</v>
+        <v>24.40351537174005</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.2039710296171</v>
+        <v>28.53891423479137</v>
       </c>
       <c r="C22">
-        <v>13.18317996311126</v>
+        <v>24.62454663311706</v>
       </c>
       <c r="D22">
-        <v>6.674798024725069</v>
+        <v>9.91419724049457</v>
       </c>
       <c r="E22">
-        <v>11.42105931561199</v>
+        <v>14.54928564899801</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>41.35728012449592</v>
+        <v>60.98303405310346</v>
       </c>
       <c r="H22">
-        <v>15.77873656567354</v>
+        <v>15.41161887794713</v>
       </c>
       <c r="I22">
-        <v>22.1932122620515</v>
+        <v>21.99602374512435</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.97468482064063</v>
+        <v>25.36767843136647</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.97134115181522</v>
+        <v>27.97750884473927</v>
       </c>
       <c r="C23">
-        <v>12.94359500018997</v>
+        <v>24.12655194487782</v>
       </c>
       <c r="D23">
-        <v>6.61679352055878</v>
+        <v>9.708031585728186</v>
       </c>
       <c r="E23">
-        <v>11.36178170480809</v>
+        <v>14.22073168336136</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>41.00788108188259</v>
+        <v>59.70359294299492</v>
       </c>
       <c r="H23">
-        <v>15.75105469907747</v>
+        <v>15.17767684632694</v>
       </c>
       <c r="I23">
-        <v>22.15969407343545</v>
+        <v>21.67542078299216</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.83766705556177</v>
+        <v>24.85536281069285</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.06195623143658</v>
+        <v>25.78319494906351</v>
       </c>
       <c r="C24">
-        <v>11.99261098535224</v>
+        <v>22.18698083209435</v>
       </c>
       <c r="D24">
-        <v>6.395653069244453</v>
+        <v>8.905693597924778</v>
       </c>
       <c r="E24">
-        <v>11.14126261643876</v>
+        <v>12.97730401072506</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>39.68556373231133</v>
+        <v>54.88115292145137</v>
       </c>
       <c r="H24">
-        <v>15.65375265069545</v>
+        <v>14.31178165097955</v>
       </c>
       <c r="I24">
-        <v>22.0447865298081</v>
+        <v>20.50601054297773</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.31600448727747</v>
+        <v>22.8630592309036</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.02465810748618</v>
+        <v>23.26077312048335</v>
       </c>
       <c r="C25">
-        <v>10.87297481648394</v>
+        <v>19.96977735205338</v>
       </c>
       <c r="D25">
-        <v>6.155464041716987</v>
+        <v>7.989860138712068</v>
       </c>
       <c r="E25">
-        <v>10.91302933865821</v>
+        <v>11.82281698522973</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.27031108261369</v>
+        <v>49.68898276761236</v>
       </c>
       <c r="H25">
-        <v>15.56509170988685</v>
+        <v>13.41697116470631</v>
       </c>
       <c r="I25">
-        <v>21.94664187672292</v>
+        <v>19.33260470963886</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.75080490952943</v>
+        <v>20.59163157044175</v>
       </c>
       <c r="N25">
         <v>0</v>
